--- a/eclipse-workspace/Intro/src/main/resources/data/ExpectedData.xlsx
+++ b/eclipse-workspace/Intro/src/main/resources/data/ExpectedData.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sagar\amazon-filter-e2e-automation\eclipse-workspace\Intro\src\main\resources\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45420AE0-DAC0-40D9-9CD7-3B1AE86CB185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +26,88 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+  <si>
+    <t>COL A</t>
+  </si>
+  <si>
+    <t>COL B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL C </t>
+  </si>
+  <si>
+    <t>COL 1</t>
+  </si>
+  <si>
+    <t>COL 2</t>
+  </si>
+  <si>
+    <t>COL 3</t>
+  </si>
+  <si>
+    <t>COL first</t>
+  </si>
+  <si>
+    <t>COL second</t>
+  </si>
+  <si>
+    <t>COL Third</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>fourth</t>
+  </si>
+  <si>
+    <t>Hey</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>whatsup</t>
+  </si>
+  <si>
+    <t>how do you do</t>
+  </si>
+  <si>
+    <t>first first</t>
+  </si>
+  <si>
+    <t>second first</t>
+  </si>
+  <si>
+    <t>third first</t>
+  </si>
+  <si>
+    <t>fourth first</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +418,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2740D344-A8F5-4E7A-B42C-3AC0BEEA838A}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C7E93D-7070-46C6-BA26-D8D6F42C7FE2}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>